--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRADLDO_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.702\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C489F-FE8B-42B4-8AFB-53883F878F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36245BFB-4D1E-4560-ADA4-FC32DAD6D329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="992">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4678,283 +4678,286 @@
     <t>Errore vocabolario. -&gt; Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: QQ]</t>
   </si>
   <si>
-    <t>2024-01-30T14:11:28Z</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:29Z</t>
-  </si>
-  <si>
-    <t>0718a4f806ead858</t>
-  </si>
-  <si>
-    <t>fba813c65741b742</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:31Z</t>
-  </si>
-  <si>
-    <t>3796ebda2af1cd61</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.097d8e8ed8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c9e923ffba4acd40</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c07ca608cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:32Z</t>
-  </si>
-  <si>
-    <t>0662cea9e240d858</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4be6a71170^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:33Z</t>
-  </si>
-  <si>
-    <t>af150ce3d409bdbd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1b2793abcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:34Z</t>
-  </si>
-  <si>
-    <t>e0519f1f58eeed57</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.7c5a0112c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:30Z</t>
-  </si>
-  <si>
-    <t>d2987d4585cf886e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.83a0f66213^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b1116558e7ceae71</t>
-  </si>
-  <si>
-    <t>45878f52dcc9fc4e</t>
-  </si>
-  <si>
-    <t>2b28637518760632</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.cb4e435b76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>63160647c220f248</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.30e1fafb9c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>af12492f021ce422</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d343dbd17e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:35Z</t>
-  </si>
-  <si>
-    <t>49e28f01dbc20716</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.41666a7cd0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:36Z</t>
-  </si>
-  <si>
-    <t>f0a2bc8131d358a5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c64e3f0210^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>78e9961ccf185b93</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6b41c65f2e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:37Z</t>
-  </si>
-  <si>
-    <t>fba6121d4d68285f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.7e09a673f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7d9a18a11938aa59</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8fd33593c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T14:11:38Z</t>
-  </si>
-  <si>
-    <t>094881e440490ae4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.02258606ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>13b6c7e54b8f9e88</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f29cb4eb08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b0c621c456c04a6a</t>
-  </si>
-  <si>
-    <t>81d603a8d292c511</t>
-  </si>
-  <si>
-    <t>69470609454fb004</t>
-  </si>
-  <si>
-    <t>9cef85713107cb13</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0894ac60de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0e3698ee37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d317b84e5554486a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.12a1505ee7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b653d930f6c3e600</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2fd8ed610e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3a35a68735157cbb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8150d5c4b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9c0a792845f9b6a1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bbfcb70897^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cd13e0ca0f62550f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.25adbc54ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>426b32980a4d1e28</t>
-  </si>
-  <si>
-    <t>fde726a95c66967c</t>
-  </si>
-  <si>
-    <t>1c64341a72e22d8d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.97ff2ba186^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>03e1d1b7c96c42a6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.4c7f9f4bcb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0cd8405523f7dcb6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.3060ccb340^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a858e85bf73bea2b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.83ca7d42ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0dbf0fc0121d85c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.de5a106c45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0d4e96c3a918236f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.c77423a2a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e279cd9920a80084</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.47cca80fe6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ad5ff176bb3e021f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.6b76d1fede^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ee7a832fd84bf73a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.936b1ce1ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2bdb3acbcd975c11</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.7b707f7823^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>180705507fc78646</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.8554f99df1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4e557f04bd5dc9d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.1eb8bcbcff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ff32f69a635a8237</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.0447e8cd24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7f986bee3e21b51d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.b319eaf10c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-02-05T14:44:40Z</t>
+  </si>
+  <si>
+    <t>e40023bd3db0566b</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:41Z</t>
+  </si>
+  <si>
+    <t>9ca2d9d37095dca0</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:42Z</t>
+  </si>
+  <si>
+    <t>86c264211257be41</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.eaadb7a6d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:43Z</t>
+  </si>
+  <si>
+    <t>0e518fc91ceef9b1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.df4db75d2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9279f43692326a71</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d0416f5b32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:44Z</t>
+  </si>
+  <si>
+    <t>f3d5613234dd24c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4b6e6a072f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:45Z</t>
+  </si>
+  <si>
+    <t>aa9b5e37d1551e64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d0420689d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:46Z</t>
+  </si>
+  <si>
+    <t>b6cb193d6774df83</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0e6a613ed7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e6a0521c435c9da8</t>
+  </si>
+  <si>
+    <t>25c47cedc703bc9e</t>
+  </si>
+  <si>
+    <t>6c582008b35e0dfd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3c4522bdfb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0df2a8ccc2214ce4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6069815ad3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ee2fceff817b5ab2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.da0aba1316^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d6af9f545502e9c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.24436bbf0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>236fb43ffd4420d7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.eea55bc44b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:47Z</t>
+  </si>
+  <si>
+    <t>a05b35b3b25a7a31</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.17620dfefc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>34f336966496d049</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c8d7630638^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:48Z</t>
+  </si>
+  <si>
+    <t>3ecf8db1cbdd7c19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.df2b7d8d31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c52b89fa9b627bc9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6b248ba568^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:49Z</t>
+  </si>
+  <si>
+    <t>362211e76e6908fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f9ad8e89c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>58b15dd736d1dc0f</t>
+  </si>
+  <si>
+    <t>ce0d3ed977975bf3</t>
+  </si>
+  <si>
+    <t>5ca4e6583ea8aa04</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3190b6891d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>126822fe0379a271</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bfa8ce55b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>13cd623f9ecf1a97</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1fb0ae6b76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>876a9924b9966193</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6571b1d980^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>07f51f629f6451ae</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.08108b4e51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a55c8e5a67fba771</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.cfe6faf636^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e161941db3530b99</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5c0f4407d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:39Z</t>
+  </si>
+  <si>
+    <t>c5547748ae40bd97</t>
+  </si>
+  <si>
+    <t>bc522e66e8431125</t>
+  </si>
+  <si>
+    <t>6f1853ba7c9d77a6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.b89165756a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9417b87e3bb29365</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.e105136f59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>20f871ea9ef84bd3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.ce5d4d91c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3fc2082b711f617c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.a81ddb0a45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e90cc9eff13090da</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.f07ba91a6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>03d4536036d34527</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.cfafbab50c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>625085be58ba4191</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.f59afeb506^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cebe7470133461ec</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.adc2171da1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>642f0ab2fe44a609</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.38002f5f5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5673de5ae5ebd2ab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.fca91f441c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e133bc25aa48bb68</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.84d52d62f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>db76be200f2d9c2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.a2d48b02de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5d16f5b6bee60db4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.0186270c95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-02-05T14:44:50Z</t>
+  </si>
+  <si>
+    <t>591679bd89457791</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.aa97555b30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7881,7 +7884,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I376" sqref="I376"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8153,16 +8156,16 @@
         <v>47</v>
       </c>
       <c r="F10" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>138</v>
@@ -8197,16 +8200,16 @@
         <v>50</v>
       </c>
       <c r="F11" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>138</v>
@@ -8241,16 +8244,16 @@
         <v>52</v>
       </c>
       <c r="F12" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>913</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>138</v>
@@ -8323,16 +8326,16 @@
         <v>56</v>
       </c>
       <c r="F14" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>138</v>
@@ -8367,16 +8370,16 @@
         <v>59</v>
       </c>
       <c r="F15" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>138</v>
@@ -8411,16 +8414,16 @@
         <v>61</v>
       </c>
       <c r="F16" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>902</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>138</v>
@@ -8455,16 +8458,16 @@
         <v>63</v>
       </c>
       <c r="F17" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>138</v>
@@ -8499,16 +8502,16 @@
         <v>65</v>
       </c>
       <c r="F18" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>910</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>138</v>
@@ -8543,13 +8546,13 @@
         <v>68</v>
       </c>
       <c r="F19" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>902</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>949</v>
@@ -8587,16 +8590,16 @@
         <v>70</v>
       </c>
       <c r="F20" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>138</v>
@@ -9115,10 +9118,10 @@
         <v>103</v>
       </c>
       <c r="F35" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>919</v>
@@ -9171,10 +9174,10 @@
         <v>106</v>
       </c>
       <c r="F36" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>898</v>
+        <v>960</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>961</v>
@@ -9261,13 +9264,13 @@
         <v>111</v>
       </c>
       <c r="F38" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I38" s="24" t="s">
         <v>872</v>
@@ -9317,13 +9320,13 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>898</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>872</v>
@@ -9475,10 +9478,10 @@
         <v>121</v>
       </c>
       <c r="F43" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>920</v>
@@ -9531,10 +9534,10 @@
         <v>123</v>
       </c>
       <c r="F44" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>962</v>
@@ -9621,13 +9624,13 @@
         <v>127</v>
       </c>
       <c r="F46" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>872</v>
@@ -9677,10 +9680,10 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H47" s="36" t="s">
         <v>901</v>
@@ -10201,16 +10204,16 @@
         <v>149</v>
       </c>
       <c r="F60" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>138</v>
@@ -10295,16 +10298,16 @@
         <v>153</v>
       </c>
       <c r="F62" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>138</v>
@@ -10425,16 +10428,16 @@
         <v>159</v>
       </c>
       <c r="F65" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>138</v>
@@ -10481,16 +10484,16 @@
         <v>161</v>
       </c>
       <c r="F66" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>138</v>
@@ -10535,16 +10538,16 @@
         <v>163</v>
       </c>
       <c r="F67" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>138</v>
@@ -10665,16 +10668,16 @@
         <v>169</v>
       </c>
       <c r="F70" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>138</v>
@@ -10719,16 +10722,16 @@
         <v>171</v>
       </c>
       <c r="F71" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>913</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>138</v>
@@ -10813,16 +10816,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J73" s="25" t="s">
         <v>138</v>
@@ -10943,16 +10946,16 @@
         <v>181</v>
       </c>
       <c r="F76" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>138</v>
@@ -10997,16 +11000,16 @@
         <v>183</v>
       </c>
       <c r="F77" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>138</v>
@@ -11051,16 +11054,16 @@
         <v>185</v>
       </c>
       <c r="F78" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>138</v>
@@ -11105,16 +11108,16 @@
         <v>187</v>
       </c>
       <c r="F79" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>138</v>
@@ -11159,16 +11162,16 @@
         <v>189</v>
       </c>
       <c r="F80" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>138</v>
@@ -11213,16 +11216,16 @@
         <v>191</v>
       </c>
       <c r="F81" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>940</v>
+        <v>989</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="J81" s="25" t="s">
         <v>138</v>
@@ -11305,16 +11308,16 @@
         <v>195</v>
       </c>
       <c r="F83" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="J83" s="25" t="s">
         <v>138</v>
@@ -11399,16 +11402,16 @@
         <v>199</v>
       </c>
       <c r="F85" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="J85" s="25" t="s">
         <v>138</v>
@@ -11567,16 +11570,16 @@
         <v>207</v>
       </c>
       <c r="F89" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>913</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="J89" s="25" t="s">
         <v>138</v>
@@ -11699,16 +11702,16 @@
         <v>213</v>
       </c>
       <c r="F92" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>138</v>
@@ -13859,16 +13862,16 @@
         <v>337</v>
       </c>
       <c r="F154" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H154" s="36" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>138</v>
@@ -14055,16 +14058,16 @@
         <v>347</v>
       </c>
       <c r="F159" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H159" s="36" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -14149,16 +14152,16 @@
         <v>351</v>
       </c>
       <c r="F161" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -14317,16 +14320,16 @@
         <v>359</v>
       </c>
       <c r="F165" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H165" s="36" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -14449,16 +14452,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H168" s="36" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -21543,16 +21546,16 @@
         <v>777</v>
       </c>
       <c r="F375" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G375" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H375" s="24" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="I375" s="39" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="J375" s="25" t="s">
         <v>138</v>
@@ -21587,16 +21590,16 @@
         <v>779</v>
       </c>
       <c r="F376" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G376" s="24" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="H376" s="24" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="I376" s="24" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>138</v>
@@ -21631,16 +21634,16 @@
         <v>781</v>
       </c>
       <c r="F377" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G377" s="24" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="H377" s="24" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="I377" s="24" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="J377" s="25" t="s">
         <v>138</v>
@@ -21777,16 +21780,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="23">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="H381" s="36" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRADLDO_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.702\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F74616-A01E-4159-A65E-859B0EC9F754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8F47C-1C98-42B4-AC44-924FC4C3B851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="994">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4945,28 +4945,25 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.47e34401ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-02-07T09:42:10Z</t>
-  </si>
-  <si>
-    <t>42e734115ceb6cd7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.3a8416b8b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e1677a68de9c86fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.56b21de8df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-02-07T09:42:11Z</t>
-  </si>
-  <si>
-    <t>77af74a7c00540fe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.c4da7b9a5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-02-08T09:39:21Z</t>
+  </si>
+  <si>
+    <t>82ee0e6b35141603</t>
+  </si>
+  <si>
+    <t>385f43d9d2174053</t>
+  </si>
+  <si>
+    <t>670e231c9f7f761a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.37252b2f0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.a1d612a427^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.abdb47439c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7893,7 +7890,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8423,7 +8420,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="23">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>987</v>
@@ -8432,7 +8429,7 @@
         <v>988</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>138</v>
@@ -8467,16 +8464,16 @@
         <v>63</v>
       </c>
       <c r="F17" s="23">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>987</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>138</v>
@@ -8511,16 +8508,16 @@
         <v>65</v>
       </c>
       <c r="F18" s="23">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="H18" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="I18" s="24" t="s">
         <v>993</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>994</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>138</v>

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRADLDO_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.702\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8F47C-1C98-42B4-AC44-924FC4C3B851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8EFF75-D134-488C-8100-658CCE1F6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="995">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4945,25 +4945,28 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.47e34401ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-02-08T09:39:21Z</t>
-  </si>
-  <si>
-    <t>82ee0e6b35141603</t>
-  </si>
-  <si>
-    <t>385f43d9d2174053</t>
-  </si>
-  <si>
-    <t>670e231c9f7f761a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.37252b2f0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.a1d612a427^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.abdb47439c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-02-09T12:11:12Z</t>
+  </si>
+  <si>
+    <t>2024-02-09T12:11:13Z</t>
+  </si>
+  <si>
+    <t>00cf61877387327d</t>
+  </si>
+  <si>
+    <t>cef1972a7f24816f</t>
+  </si>
+  <si>
+    <t>5e64dc3e4b4c8395</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.34929dd3da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.82ab6d453d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.cbb67c1e8b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7887,10 +7890,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8420,16 +8423,16 @@
         <v>61</v>
       </c>
       <c r="F16" s="23">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>987</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>138</v>
@@ -8464,16 +8467,16 @@
         <v>63</v>
       </c>
       <c r="F17" s="23">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>138</v>
@@ -8508,16 +8511,16 @@
         <v>65</v>
       </c>
       <c r="F18" s="23">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>138</v>

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.702/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRADLDO_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.702\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8EFF75-D134-488C-8100-658CCE1F6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916EDBE6-C4CA-4B8A-B70D-6651B89807E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4669,9 +4669,6 @@
     <t>Errore semantico. -&gt; [ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
   </si>
   <si>
-    <t>Errore di sintassi. -&gt; Error while executing validation on xsd schema</t>
-  </si>
-  <si>
     <t>Errore vocabolario. -&gt; Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: sss.01]</t>
   </si>
   <si>
@@ -4967,6 +4964,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.cbb67c1e8b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico. -&gt; [ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section/entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato ]</t>
   </si>
 </sst>
 </file>
@@ -7890,10 +7890,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8168,13 +8168,13 @@
         <v>45327</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H10" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>923</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>924</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>138</v>
@@ -8212,13 +8212,13 @@
         <v>45327</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H11" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>925</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>926</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>138</v>
@@ -8256,13 +8256,13 @@
         <v>45327</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H12" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>927</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>928</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>138</v>
@@ -8338,13 +8338,13 @@
         <v>45327</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H14" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>929</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>930</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>138</v>
@@ -8382,13 +8382,13 @@
         <v>45329</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="I15" s="24" t="s">
         <v>985</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>986</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>138</v>
@@ -8426,13 +8426,13 @@
         <v>45331</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>138</v>
@@ -8470,13 +8470,13 @@
         <v>45331</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>138</v>
@@ -8514,13 +8514,13 @@
         <v>45331</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>138</v>
@@ -8558,13 +8558,13 @@
         <v>45327</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H19" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>948</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>949</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>138</v>
@@ -8602,13 +8602,13 @@
         <v>45327</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H20" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>950</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>951</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>138</v>
@@ -9130,10 +9130,10 @@
         <v>45327</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>872</v>
@@ -9186,10 +9186,10 @@
         <v>45327</v>
       </c>
       <c r="G36" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>960</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>961</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>872</v>
@@ -9276,10 +9276,10 @@
         <v>45327</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I38" s="24" t="s">
         <v>872</v>
@@ -9332,10 +9332,10 @@
         <v>45327</v>
       </c>
       <c r="G39" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="H39" s="36" t="s">
         <v>898</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>899</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>872</v>
@@ -9490,10 +9490,10 @@
         <v>45327</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>872</v>
@@ -9546,10 +9546,10 @@
         <v>45327</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>872</v>
@@ -9636,10 +9636,10 @@
         <v>45327</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>872</v>
@@ -9692,10 +9692,10 @@
         <v>45327</v>
       </c>
       <c r="G47" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="H47" s="36" t="s">
         <v>900</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>901</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>872</v>
@@ -10216,13 +10216,13 @@
         <v>45327</v>
       </c>
       <c r="G60" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="I60" s="24" t="s">
         <v>932</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>933</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>138</v>
@@ -10310,13 +10310,13 @@
         <v>45327</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H62" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="I62" s="24" t="s">
         <v>934</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>935</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>138</v>
@@ -10440,13 +10440,13 @@
         <v>45327</v>
       </c>
       <c r="G65" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="H65" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="I65" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>938</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>138</v>
@@ -10496,13 +10496,13 @@
         <v>45327</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H66" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="I66" s="24" t="s">
         <v>939</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>940</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>138</v>
@@ -10550,13 +10550,13 @@
         <v>45327</v>
       </c>
       <c r="G67" s="39" t="s">
+        <v>940</v>
+      </c>
+      <c r="H67" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="I67" s="24" t="s">
         <v>942</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>943</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>138</v>
@@ -10680,13 +10680,13 @@
         <v>45327</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H70" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="I70" s="24" t="s">
         <v>965</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>966</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>138</v>
@@ -10734,13 +10734,13 @@
         <v>45327</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H71" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="I71" s="24" t="s">
         <v>967</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>968</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>138</v>
@@ -10828,13 +10828,13 @@
         <v>45327</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H73" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="I73" s="24" t="s">
         <v>969</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>970</v>
       </c>
       <c r="J73" s="25" t="s">
         <v>138</v>
@@ -10958,13 +10958,13 @@
         <v>45327</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H76" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="I76" s="24" t="s">
         <v>971</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>972</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>138</v>
@@ -11012,13 +11012,13 @@
         <v>45327</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H77" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="I77" s="24" t="s">
         <v>973</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>974</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>138</v>
@@ -11066,13 +11066,13 @@
         <v>45327</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H78" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="I78" s="24" t="s">
         <v>975</v>
-      </c>
-      <c r="I78" s="24" t="s">
-        <v>976</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>138</v>
@@ -11120,13 +11120,13 @@
         <v>45327</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H79" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="I79" s="24" t="s">
         <v>977</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>978</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>138</v>
@@ -11139,7 +11139,7 @@
         <v>138</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>895</v>
+        <v>994</v>
       </c>
       <c r="O79" s="25" t="s">
         <v>138</v>
@@ -11174,13 +11174,13 @@
         <v>45327</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H80" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="I80" s="24" t="s">
         <v>979</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>980</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>138</v>
@@ -11193,7 +11193,7 @@
         <v>138</v>
       </c>
       <c r="N80" s="25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O80" s="25" t="s">
         <v>138</v>
@@ -11228,13 +11228,13 @@
         <v>45327</v>
       </c>
       <c r="G81" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="H81" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="H81" s="24" t="s">
+      <c r="I81" s="24" t="s">
         <v>982</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>983</v>
       </c>
       <c r="J81" s="25" t="s">
         <v>138</v>
@@ -11247,7 +11247,7 @@
         <v>138</v>
       </c>
       <c r="N81" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O81" s="25" t="s">
         <v>138</v>
@@ -11320,13 +11320,13 @@
         <v>45327</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H83" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="I83" s="24" t="s">
         <v>952</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>953</v>
       </c>
       <c r="J83" s="25" t="s">
         <v>138</v>
@@ -11414,13 +11414,13 @@
         <v>45327</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H85" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="I85" s="24" t="s">
         <v>954</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>955</v>
       </c>
       <c r="J85" s="25" t="s">
         <v>138</v>
@@ -11582,13 +11582,13 @@
         <v>45327</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H89" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="I89" s="24" t="s">
         <v>956</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>957</v>
       </c>
       <c r="J89" s="25" t="s">
         <v>138</v>
@@ -11714,13 +11714,13 @@
         <v>45327</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H92" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="I92" s="24" t="s">
         <v>958</v>
-      </c>
-      <c r="I92" s="24" t="s">
-        <v>959</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>138</v>
@@ -13874,13 +13874,13 @@
         <v>45327</v>
       </c>
       <c r="G154" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="H154" s="36" t="s">
         <v>905</v>
       </c>
-      <c r="H154" s="36" t="s">
+      <c r="I154" s="24" t="s">
         <v>906</v>
-      </c>
-      <c r="I154" s="24" t="s">
-        <v>907</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>138</v>
@@ -14070,13 +14070,13 @@
         <v>45327</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H159" s="36" t="s">
+        <v>907</v>
+      </c>
+      <c r="I159" s="24" t="s">
         <v>908</v>
-      </c>
-      <c r="I159" s="24" t="s">
-        <v>909</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -14164,13 +14164,13 @@
         <v>45327</v>
       </c>
       <c r="G161" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="H161" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H161" s="36" t="s">
+      <c r="I161" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="I161" s="24" t="s">
-        <v>912</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -14332,13 +14332,13 @@
         <v>45327</v>
       </c>
       <c r="G165" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="H165" s="36" t="s">
         <v>913</v>
       </c>
-      <c r="H165" s="36" t="s">
+      <c r="I165" s="24" t="s">
         <v>914</v>
-      </c>
-      <c r="I165" s="24" t="s">
-        <v>915</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -14464,13 +14464,13 @@
         <v>45327</v>
       </c>
       <c r="G168" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="H168" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="H168" s="36" t="s">
+      <c r="I168" s="24" t="s">
         <v>917</v>
-      </c>
-      <c r="I168" s="24" t="s">
-        <v>918</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -21558,13 +21558,13 @@
         <v>45327</v>
       </c>
       <c r="G375" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H375" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="I375" s="39" t="s">
         <v>921</v>
-      </c>
-      <c r="I375" s="39" t="s">
-        <v>922</v>
       </c>
       <c r="J375" s="25" t="s">
         <v>138</v>
@@ -21602,13 +21602,13 @@
         <v>45327</v>
       </c>
       <c r="G376" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H376" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="I376" s="24" t="s">
         <v>963</v>
-      </c>
-      <c r="I376" s="24" t="s">
-        <v>964</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>138</v>
@@ -21646,13 +21646,13 @@
         <v>45327</v>
       </c>
       <c r="G377" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H377" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="I377" s="24" t="s">
         <v>946</v>
-      </c>
-      <c r="I377" s="24" t="s">
-        <v>947</v>
       </c>
       <c r="J377" s="25" t="s">
         <v>138</v>
@@ -21792,13 +21792,13 @@
         <v>45327</v>
       </c>
       <c r="G381" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="H381" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="H381" s="36" t="s">
+      <c r="I381" s="24" t="s">
         <v>903</v>
-      </c>
-      <c r="I381" s="24" t="s">
-        <v>904</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
